--- a/Kế Hoạch/KeHoach-Seminar(Fix1).xlsx
+++ b/Kế Hoạch/KeHoach-Seminar(Fix1).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hunte\Desktop\Kế Hoạch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19365" windowHeight="8340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,12 +35,6 @@
     <t>Nội dung việc làm</t>
   </si>
   <si>
-    <t>Họp chọn ra 4 app quay màn hình điện thoại chia cho mỗi người.</t>
-  </si>
-  <si>
-    <t>Các thành viên phải cài đặt app thành công và hiểu rõ cách sử dung của app mà mình đảm nhận. (dùng và làm quen)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Chọn ra 1 mẫu template về các bước hướng dẫn sử dụng để thành viên dựa vào làm tránh việc không thống nhất về các bước</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>30/05 --&gt; 04/06</t>
   </si>
   <si>
-    <t>Thành viên tiến hành đưa ra các ưu và nhược điểm của app mình đang dùng và trình bày hướng dẫn sử dụng.</t>
-  </si>
-  <si>
     <t>Tiến hành so sánh chức về các app dựa vào 4 bài đánh giá trước đó. (Đòi hỏi các thành viên phải chọn ra 1 ngày họp bàn face to face)</t>
   </si>
   <si>
@@ -69,12 +60,21 @@
   </si>
   <si>
     <t>20/06 --&gt; 25/06</t>
+  </si>
+  <si>
+    <t>Họp chọn ra 2 app quay màn hình desktop</t>
+  </si>
+  <si>
+    <t>Tiến hành cài đặt app và làm quen với app (yêu cầu: nắm rõ về các chức năng có trong app, các nút lệnh cơ bản, cách thao tác sử dụng các tool có trong app</t>
+  </si>
+  <si>
+    <t>Phân công thành viện test chi tiết và viết ra bản báo cáo sơ bộ dựa trên template để tiến hành gộp ý cho ra bản chính</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,25 +183,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -523,14 +526,14 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="81.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="63" style="2" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="2" bestFit="1" customWidth="1"/>
@@ -540,11 +543,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -557,13 +560,13 @@
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
@@ -572,12 +575,12 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
@@ -586,12 +589,12 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6"/>
       <c r="D4"/>
       <c r="E4"/>
       <c r="F4"/>
@@ -600,50 +603,50 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
